--- a/build/3part.xlsx
+++ b/build/3part.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\klc\markdown\python\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\klc\build_lib\build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F95910-883A-4218-B8B6-0AD21860DC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E91D0C-279A-4D3A-9DCA-852251C3F169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-924" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-924" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第三方组件列表" sheetId="1" r:id="rId1"/>
@@ -696,7 +696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -948,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF9B006-9CDD-4774-B5A5-71EC195F503E}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -997,7 +997,7 @@
         <v>43</v>
       </c>
       <c r="B4" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>35</v>

--- a/build/3part.xlsx
+++ b/build/3part.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\klc\build_lib\build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E91D0C-279A-4D3A-9DCA-852251C3F169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C746CB8-1509-4BEB-A7A0-2015F2CA8FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-924" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -212,10 +212,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cppcheck cppunit fastcgi hiredis jsoncpp log4cpp tinyxml yamlcpp zeromq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>组件宏定义</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -277,6 +273,10 @@
   </si>
   <si>
     <t>COMP_COMLIB_LIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cppcheck cppunit fastcgi hiredis jsoncpp log4cpp protobuf tinyxml yamlcpp zeromq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -697,7 +697,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -711,7 +711,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -776,7 +776,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -851,7 +851,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
@@ -865,7 +865,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -907,7 +907,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
@@ -1005,10 +1005,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>36</v>

--- a/build/3part.xlsx
+++ b/build/3part.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\klc\build_lib\build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C746CB8-1509-4BEB-A7A0-2015F2CA8FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BFA1DD-7928-4263-BC5D-A18485FF9F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-924" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
   <si>
     <t>文件名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -277,6 +277,26 @@
   </si>
   <si>
     <t>cppcheck cppunit fastcgi hiredis jsoncpp log4cpp protobuf tinyxml yamlcpp zeromq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMAKE_BUILD_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Release</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMAKE_BUILD_VERSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cppcheck cppunit fastcgi hiredis jsoncpp log4cpp tinyxml yamlcpp zeromq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -946,10 +966,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF9B006-9CDD-4774-B5A5-71EC195F503E}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -959,7 +979,7 @@
     <col min="3" max="3" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -970,7 +990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -981,7 +1001,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -992,7 +1012,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1003,18 +1023,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>60</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -1022,6 +1045,28 @@
         <v>36</v>
       </c>
       <c r="C6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
         <v>38</v>
       </c>
     </row>

--- a/build/3part.xlsx
+++ b/build/3part.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\klc\build_lib\build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BFA1DD-7928-4263-BC5D-A18485FF9F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732E5720-7E36-4A62-B979-2C471ED5E774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-924" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
   <si>
     <t>文件名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,7 +296,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cppcheck cppunit fastcgi hiredis jsoncpp log4cpp tinyxml yamlcpp zeromq</t>
+    <t>googletest-release-1.11.0.tar.gz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>googletest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_GOOGLETEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cppcheck cppunit fastcgi hiredis jsoncpp log4cpp tinyxml yamlcpp zeromq googletest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,74 +384,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -459,7 +403,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -714,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -950,6 +894,20 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
         <v>5</v>
       </c>
     </row>
@@ -969,7 +927,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1028,7 +986,7 @@
         <v>60</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>

--- a/build/3part.xlsx
+++ b/build/3part.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\klc\build_lib\build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732E5720-7E36-4A62-B979-2C471ED5E774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECAE5F6-FF3B-4D57-ACB0-152EEED600AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-924" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第三方组件列表" sheetId="1" r:id="rId1"/>
@@ -140,10 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>poco-1.10.1-all.tar.gz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cppunit-1.12.1.tar.gz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -276,10 +272,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cppcheck cppunit fastcgi hiredis jsoncpp log4cpp protobuf tinyxml yamlcpp zeromq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CMAKE_BUILD_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -308,7 +300,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cppcheck cppunit fastcgi hiredis jsoncpp log4cpp tinyxml yamlcpp zeromq googletest</t>
+    <t>cppcheck cppunit fastcgi googletest hiredis jsoncpp log4cpp poco protobuf tinyxml yamlcpp zeromq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poco-1.12.2-all.tar.gz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/pocoproject/poco</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -669,13 +669,14 @@
     <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="33.75" customWidth="1"/>
     <col min="3" max="3" width="28.25" customWidth="1"/>
-    <col min="4" max="6" width="18.75" customWidth="1"/>
+    <col min="4" max="5" width="18.75" customWidth="1"/>
+    <col min="6" max="6" width="55.625" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -698,7 +699,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -709,20 +710,17 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2">
-        <v>111</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -730,17 +728,14 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3">
-        <v>222</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
@@ -755,7 +750,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -770,7 +765,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -785,7 +780,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -800,7 +795,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -815,10 +810,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -826,13 +821,16 @@
       <c r="D9" t="s">
         <v>5</v>
       </c>
+      <c r="F9" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -843,7 +841,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
@@ -857,7 +855,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -871,7 +869,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -885,7 +883,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
@@ -899,13 +897,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -916,9 +914,10 @@
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{B8BFDDD3-D43A-4B89-A5F2-C7A582BEEC76}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{01CAF67D-EC90-4D2A-91D3-1958247D079B}"/>
+    <hyperlink ref="F9" r:id="rId3" xr:uid="{C8D0DCFF-1381-4608-9003-84715FB8317D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -926,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF9B006-9CDD-4774-B5A5-71EC195F503E}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -939,10 +938,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
@@ -950,82 +949,80 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="4">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>62</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/build/3part.xlsx
+++ b/build/3part.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\klc\build_lib\build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECAE5F6-FF3B-4D57-ACB0-152EEED600AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53AA77C-6DE7-4597-89D7-E5C7C5FF8621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
   <si>
     <t>文件名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,10 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jsoncpp-src-0.5.0.tar.gz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>log4cpp-1.1.3.tar.gz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,15 +296,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cppcheck cppunit fastcgi googletest hiredis jsoncpp log4cpp poco protobuf tinyxml yamlcpp zeromq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>poco-1.12.2-all.tar.gz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/pocoproject/poco</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsoncpp-1.9.5.tar.gz</t>
+  </si>
+  <si>
+    <t>trantor-1.5.10.tar.gz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drogon-1.8.3.tar.gz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drogon</t>
+  </si>
+  <si>
+    <t>COMP_TRANTOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_DROGON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drogon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cppcheck cppunit fastcgi googletest hiredis jsoncpp log4cpp poco protobuf tinyxml yamlcpp zeromq drogon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_USE_STATIC_LIB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否使用静态库，0-否，1-是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.3.12: jsoncpp-src-0.5.0.tar.gz废弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/drogonframework/drogon</t>
+  </si>
+  <si>
+    <t>https://github.com/an-tao/trantor/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/google/googletest</t>
+  </si>
+  <si>
+    <t>https://github.com/jbeder/yaml-cpp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -658,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -670,13 +718,13 @@
     <col min="2" max="2" width="33.75" customWidth="1"/>
     <col min="3" max="3" width="28.25" customWidth="1"/>
     <col min="4" max="5" width="18.75" customWidth="1"/>
-    <col min="6" max="6" width="55.625" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.625" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -699,7 +747,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -711,16 +759,16 @@
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -729,16 +777,16 @@
         <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -750,10 +798,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -765,10 +813,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -780,10 +828,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -791,14 +839,16 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -810,10 +860,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -822,15 +872,15 @@
         <v>5</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -841,10 +891,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -855,10 +905,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
@@ -866,13 +916,16 @@
       <c r="D12" t="s">
         <v>5</v>
       </c>
+      <c r="F12" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -883,10 +936,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -897,16 +950,53 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
         <v>65</v>
       </c>
-      <c r="C15" t="s">
-        <v>66</v>
-      </c>
       <c r="D15" t="s">
         <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -915,33 +1005,35 @@
     <hyperlink ref="F2" r:id="rId1" xr:uid="{B8BFDDD3-D43A-4B89-A5F2-C7A582BEEC76}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{01CAF67D-EC90-4D2A-91D3-1958247D079B}"/>
     <hyperlink ref="F9" r:id="rId3" xr:uid="{C8D0DCFF-1381-4608-9003-84715FB8317D}"/>
+    <hyperlink ref="F16" r:id="rId4" xr:uid="{3435235C-2FA8-4E9C-9401-26BF55D06739}"/>
+    <hyperlink ref="F12" r:id="rId5" xr:uid="{54E8EB65-F216-43FD-BFDC-39C6DED018B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF9B006-9CDD-4774-B5A5-71EC195F503E}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.875" customWidth="1"/>
-    <col min="2" max="2" width="51.5" customWidth="1"/>
+    <col min="2" max="2" width="91.25" customWidth="1"/>
     <col min="3" max="3" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
@@ -949,80 +1041,91 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="4">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/build/3part.xlsx
+++ b/build/3part.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\klc\build_lib\build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53AA77C-6DE7-4597-89D7-E5C7C5FF8621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB5D268-8F66-4222-B743-A295545B2AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="94">
   <si>
     <t>文件名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -304,59 +304,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>trantor-1.5.10.tar.gz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drogon-1.8.3.tar.gz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drogon</t>
+  </si>
+  <si>
+    <t>COMP_TRANTOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_DROGON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drogon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cppcheck cppunit fastcgi googletest hiredis jsoncpp log4cpp poco protobuf tinyxml yamlcpp zeromq drogon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_USE_STATIC_LIB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否使用静态库，0-否，1-是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.3.12: jsoncpp-src-0.5.0.tar.gz废弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/an-tao/trantor/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/jbeder/yaml-cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.fastcgi.com/dist/fcgi.tar.gz </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.lighttpd.net/download/spawn-fcgi-1.6.3.tar.gz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确认下载路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/redis/hiredis/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>jsoncpp-1.9.5.tar.gz</t>
-  </si>
-  <si>
-    <t>trantor-1.5.10.tar.gz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drogon-1.8.3.tar.gz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drogon</t>
-  </si>
-  <si>
-    <t>COMP_TRANTOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMP_DROGON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drogon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cppcheck cppunit fastcgi googletest hiredis jsoncpp log4cpp poco protobuf tinyxml yamlcpp zeromq drogon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IS_USE_STATIC_LIB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否使用静态库，0-否，1-是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.3.12: jsoncpp-src-0.5.0.tar.gz废弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/open-source-parsers/jsoncpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git clone https://git.code.sf.net/p/log4cpp/codegit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/protocolbuffers/protobuf/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/zeromq/libzmq/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/zeromq/cppzmq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/google/googletest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/drogonframework/drogon</t>
-  </si>
-  <si>
-    <t>https://github.com/an-tao/trantor/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/google/googletest</t>
-  </si>
-  <si>
-    <t>https://github.com/jbeder/yaml-cpp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,7 +410,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,6 +432,12 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -412,7 +461,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -424,6 +473,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -709,7 +761,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -794,7 +846,12 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="F4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -809,7 +866,12 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="F5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -824,14 +886,19 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="F6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -839,11 +906,14 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
+      <c r="F7" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="G7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -856,7 +926,10 @@
       <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -888,6 +961,9 @@
       <c r="D10" t="s">
         <v>5</v>
       </c>
+      <c r="F10" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -917,7 +993,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -933,6 +1009,9 @@
       <c r="D13" t="s">
         <v>5</v>
       </c>
+      <c r="F13" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -947,6 +1026,9 @@
       <c r="D14" t="s">
         <v>5</v>
       </c>
+      <c r="F14" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -961,42 +1043,42 @@
       <c r="D15" t="s">
         <v>5</v>
       </c>
-      <c r="F15" t="s">
-        <v>82</v>
+      <c r="F15" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
         <v>71</v>
       </c>
-      <c r="C17" t="s">
-        <v>72</v>
-      </c>
       <c r="D17" t="s">
         <v>5</v>
       </c>
-      <c r="F17" t="s">
-        <v>80</v>
+      <c r="F17" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1007,9 +1089,17 @@
     <hyperlink ref="F9" r:id="rId3" xr:uid="{C8D0DCFF-1381-4608-9003-84715FB8317D}"/>
     <hyperlink ref="F16" r:id="rId4" xr:uid="{3435235C-2FA8-4E9C-9401-26BF55D06739}"/>
     <hyperlink ref="F12" r:id="rId5" xr:uid="{54E8EB65-F216-43FD-BFDC-39C6DED018B7}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{4C82EEC4-25E1-4876-97D3-85328A2CD8D8}"/>
+    <hyperlink ref="F6" r:id="rId7" xr:uid="{3DAD7B4D-2405-4B2E-AF85-68BC1B91D3CB}"/>
+    <hyperlink ref="F7" r:id="rId8" xr:uid="{84C086D6-9386-4A7B-8FB1-4E31565FF0CE}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{9179C892-9D1C-41C4-9A85-A5430945F8F9}"/>
+    <hyperlink ref="F13" r:id="rId10" xr:uid="{3EF4ECDD-5E76-4B63-A196-79A03102D81A}"/>
+    <hyperlink ref="F14" r:id="rId11" xr:uid="{B551D4C3-4B57-4496-83FC-CAC870DA1CE0}"/>
+    <hyperlink ref="F15" r:id="rId12" xr:uid="{1FF04195-6FC3-41A4-AB6B-D33B9B5D6637}"/>
+    <hyperlink ref="F17" r:id="rId13" xr:uid="{07701658-D0E2-46D3-A4C3-5DE743A2CC4E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -1077,7 +1167,7 @@
         <v>58</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
@@ -1119,13 +1209,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/build/3part.xlsx
+++ b/build/3part.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\klc\build_lib\build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB5D268-8F66-4222-B743-A295545B2AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FD9402-9F10-4136-A308-5AFB6055AF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第三方组件列表" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="97">
   <si>
     <t>文件名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,10 +164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Common Data/MySQL Data/Redis JSON Log </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第三方库构建列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -400,6 +396,22 @@
   </si>
   <si>
     <t>https://github.com/drogonframework/drogon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRJ_PATH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/stibel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common Data/MySQL Data/Redis JSON Log</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -760,7 +772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -776,7 +788,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -799,7 +811,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -817,7 +829,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
@@ -835,7 +847,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -847,15 +859,15 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -867,15 +879,15 @@
         <v>5</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -887,18 +899,18 @@
         <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -907,15 +919,15 @@
         <v>5</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -928,15 +940,15 @@
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -945,12 +957,12 @@
         <v>5</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
@@ -962,12 +974,12 @@
         <v>5</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -981,7 +993,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
@@ -993,12 +1005,12 @@
         <v>5</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
@@ -1010,12 +1022,12 @@
         <v>5</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
@@ -1027,58 +1039,58 @@
         <v>5</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
         <v>64</v>
       </c>
-      <c r="C15" t="s">
-        <v>65</v>
-      </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
         <v>70</v>
       </c>
-      <c r="C17" t="s">
-        <v>71</v>
-      </c>
       <c r="D17" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1105,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF9B006-9CDD-4774-B5A5-71EC195F503E}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1131,29 +1143,29 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4">
         <v>4</v>
@@ -1164,58 +1176,69 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/build/3part.xlsx
+++ b/build/3part.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\klc\build_lib\build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FD9402-9F10-4136-A308-5AFB6055AF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B871E69-5BDF-4609-9CC9-FC926B3D0CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="117">
   <si>
     <t>文件名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -323,10 +323,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cppcheck cppunit fastcgi googletest hiredis jsoncpp log4cpp poco protobuf tinyxml yamlcpp zeromq drogon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IS_USE_STATIC_LIB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -351,10 +347,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> http://www.lighttpd.net/download/spawn-fcgi-1.6.3.tar.gz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>待确认下载路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -412,6 +404,95 @@
   </si>
   <si>
     <t>Common Data/MySQL Data/Redis JSON Log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenSSL是一个强大的、商业级的、功能齐全的用于传输层安全（TLS）协议的开源工具包，以前称为安全套接字层（SSL）协议。协议实现基于全强度通用密码库，该库也可以单独使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/openssl/openssl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openssl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_OPENSSL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openssl-3.1.0.tar.gz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zlib-1.2.13.tar.gz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>libuuid-1.0.3.tar.gz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zlib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_ZLIB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_UUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zlib 1.2.13是一个通用的数据压缩库。所有代码都是线程安全。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/madler/zlib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openssl,zlib,uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UUID含义是通用唯一识别码(Universally Unique Identifier)，这 是一个软件建构的标准，也是被开源软件基金会 (Open Software Foundation, OSF) 的组织应用在分布式计算环境 (Distributed Computing Environment, DCE) 领域的一部分。
+UUID是指在一台机器上生成的数字，它保证对在同一时空中的所有机器都是唯一的。通常平台会提供生成的API。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sourceforge.net/projects/libuuid/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sourceforge.net/projects/tinyxml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sourceforge.net/project/log4cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>libtool不需要构建，用yum安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lighttpd.net/download/spawn-fcgi-1.6.3.tar.gz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cppcheck cppunit fastcgi googletest hiredis jsoncpp openssl zlib uuid log4cpp poco protobuf tinyxml yamlcpp zeromq drogon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,7 +503,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,12 +525,6 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -473,7 +548,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -486,7 +561,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -770,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -858,11 +936,11 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
-        <v>81</v>
+      <c r="F4" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -879,10 +957,10 @@
         <v>5</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -899,10 +977,10 @@
         <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -910,7 +988,7 @@
         <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -919,13 +997,13 @@
         <v>5</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -938,9 +1016,14 @@
       <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="E8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="G8" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -956,6 +1039,9 @@
       <c r="D9" t="s">
         <v>5</v>
       </c>
+      <c r="E9" t="s">
+        <v>97</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>67</v>
       </c>
@@ -974,7 +1060,7 @@
         <v>5</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -990,6 +1076,9 @@
       <c r="D11" t="s">
         <v>5</v>
       </c>
+      <c r="F11" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1005,7 +1094,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1022,7 +1111,7 @@
         <v>5</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1039,7 +1128,7 @@
         <v>5</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1056,7 +1145,7 @@
         <v>5</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1073,10 +1162,10 @@
         <v>5</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -1089,8 +1178,71 @@
       <c r="D17" t="s">
         <v>5</v>
       </c>
+      <c r="E17" t="s">
+        <v>108</v>
+      </c>
       <c r="F17" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1109,18 +1261,24 @@
     <hyperlink ref="F14" r:id="rId11" xr:uid="{B551D4C3-4B57-4496-83FC-CAC870DA1CE0}"/>
     <hyperlink ref="F15" r:id="rId12" xr:uid="{1FF04195-6FC3-41A4-AB6B-D33B9B5D6637}"/>
     <hyperlink ref="F17" r:id="rId13" xr:uid="{07701658-D0E2-46D3-A4C3-5DE743A2CC4E}"/>
+    <hyperlink ref="F18" r:id="rId14" xr:uid="{BDC212C0-07D2-4541-9ABC-3367581D25D7}"/>
+    <hyperlink ref="F19" r:id="rId15" xr:uid="{C2E61CC1-21D3-4A61-BB0C-A3B295381B35}"/>
+    <hyperlink ref="F20" r:id="rId16" xr:uid="{09984025-E706-49F6-B3BF-3C783CD17308}"/>
+    <hyperlink ref="F11" r:id="rId17" xr:uid="{7E85B1CC-8265-4B2C-9AD1-8EC1335E47F3}"/>
+    <hyperlink ref="F8" r:id="rId18" xr:uid="{42EDA33E-F391-4C62-9CAF-B478DB755A30}"/>
+    <hyperlink ref="F4" r:id="rId19" xr:uid="{A3F2596E-B488-4FEE-A148-2293E84C074E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF9B006-9CDD-4774-B5A5-71EC195F503E}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1130,7 +1288,7 @@
     <col min="3" max="3" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -1141,7 +1299,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1152,7 +1310,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1163,7 +1321,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -1174,30 +1332,33 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>57</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>58</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -1208,7 +1369,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -1219,26 +1380,26 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
         <v>93</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/build/3part.xlsx
+++ b/build/3part.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\klc\build_lib\build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B871E69-5BDF-4609-9CC9-FC926B3D0CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05DE5A2-7F88-470A-A389-B5F2C55676F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第三方组件列表" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="119">
   <si>
     <t>文件名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -400,10 +400,6 @@
   </si>
   <si>
     <t>项目路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Common Data/MySQL Data/Redis JSON Log</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -493,6 +489,18 @@
   </si>
   <si>
     <t>cppcheck cppunit fastcgi googletest hiredis jsoncpp openssl zlib uuid log4cpp poco protobuf tinyxml yamlcpp zeromq drogon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common/Config Common/Foundation Data/MySQL Data/Redis JSON Log Util XML YAML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构建版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -937,7 +945,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>80</v>
@@ -1017,10 +1025,10 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>85</v>
@@ -1040,7 +1048,7 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>67</v>
@@ -1077,7 +1085,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1179,7 +1187,7 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>90</v>
@@ -1187,62 +1195,62 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" t="s">
         <v>98</v>
       </c>
-      <c r="B18" t="s">
-        <v>99</v>
-      </c>
       <c r="C18" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1286,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1337,13 +1345,13 @@
         <v>57</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -1352,7 +1360,7 @@
         <v>58</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
@@ -1366,7 +1374,7 @@
         <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1377,7 +1385,7 @@
         <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
